--- a/Excel_Importation/transaction.xlsx
+++ b/Excel_Importation/transaction.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22812"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD6DC2F0-808D-4AE7-B14D-87E8BC313D92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3AF8C17-7A83-47C4-BB10-D747F4A040EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Montant</t>
   </si>
@@ -39,13 +39,10 @@
     <t xml:space="preserve">personne </t>
   </si>
   <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>cc</t>
+    <t>Revenu</t>
+  </si>
+  <si>
+    <t>Depense</t>
   </si>
 </sst>
 </file>
@@ -404,7 +401,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -459,7 +456,7 @@
         <v>1000</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>43046</v>
